--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_265.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_265.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/9', 'B', 'E']]</t>
+          <t>[['A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.414179, 8.780606)]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(22.599387, 29.576984)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:16.759569', '0:00:29.414444')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:32.351768', '0:00:40.095623')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'D:min/A', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09738372093023256</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.86, 13.5)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(38.588, 43.202)]</t>
+          <t>[('0:00:11.860000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03903436988543371</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:7', 'Ab:7']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.72, 43.17)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.3, 22.37)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:13.120000', '0:00:19.960000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.89526, 54.712675)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>jaah_44</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07054794520547945</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['Ab:7', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(31.26, 45.88)]</t>
+          <t>[('0:00:46.990000', '0:00:49.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:34.650000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6'], ['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G/3', 'G', 'G'], ['G', 'C', 'G/3']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903), (5.121, 12.601)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.366439, 5.255782), (22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1046910755148741</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2373737373737374</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.36873, 26.802199)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(28.800769, 44.370308)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2714285714285715</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(61.597865, 67.543219)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.256247, 25.47466)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1589673913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'F#:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.441, 4.928)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(91.551043, 99.341337)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.06, 63.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.14, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1291208791208791</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.651995, 24.735623)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.48, 31.26)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07263513513513514</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.24, 8.18)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.82, 16.26)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(56.279931, 60.633673)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.635324, 5.81136)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1804812834224599</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.74, 12.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.442301, 13.370949)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
